--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipstorer/Documents/Pharma Brand Manager/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F3B90-2BF9-D84B-AD4E-8C1975725588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="162">
   <si>
     <t>Strategic Imperative</t>
   </si>
@@ -504,24 +513,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -529,11 +540,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -547,8 +564,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -558,52 +577,40 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -793,20 +800,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,15 +859,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
@@ -865,19 +877,19 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -898,46 +910,46 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -949,8 +961,8 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
@@ -960,15 +972,15 @@
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -980,7 +992,7 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
@@ -993,7 +1005,7 @@
       <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,35 +1016,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1044,7 +1056,7 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1057,15 +1069,15 @@
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1077,7 +1089,7 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1090,8 +1102,8 @@
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1099,11 +1111,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1134,10 +1146,10 @@
       <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1149,26 +1161,26 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1180,7 +1192,7 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1190,8 +1202,8 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,8 +1214,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1215,8 +1227,8 @@
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1226,15 +1238,15 @@
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1246,14 +1258,14 @@
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1264,8 +1276,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1277,14 +1289,14 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1295,22 +1307,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1320,18 +1332,18 @@
       <c r="L16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1341,8 +1353,8 @@
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1353,8 +1365,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1366,7 +1378,7 @@
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,17 +1391,17 @@
       <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1401,7 +1413,7 @@
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1423,10 +1435,10 @@
       <c r="L19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1438,7 +1450,7 @@
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,7 +1460,7 @@
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1458,18 +1470,18 @@
       <c r="L20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,27 +1491,27 @@
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1509,8 +1521,8 @@
       <c r="I22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1518,16 +1530,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,72 +1561,72 @@
       <c r="L23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1640,8 +1652,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1653,15 +1665,15 @@
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1671,10 +1683,10 @@
       <c r="L27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1686,7 +1698,7 @@
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>14</v>
       </c>
@@ -1705,11 +1717,11 @@
       <c r="K28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1721,26 +1733,26 @@
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1752,7 +1764,7 @@
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1765,15 +1777,15 @@
       <c r="I30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1785,8 +1797,8 @@
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1796,15 +1808,15 @@
       <c r="I31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1816,7 +1828,7 @@
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1842,8 +1854,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1855,53 +1867,53 @@
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1913,7 +1925,7 @@
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +1935,7 @@
       <c r="H35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="3"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1933,10 +1945,10 @@
       <c r="L35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1948,7 +1960,7 @@
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1974,43 +1986,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
         <v>14</v>
       </c>
@@ -2020,32 +2032,38 @@
       <c r="L38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -2053,7 +2071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -2061,7 +2079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -2069,7 +2087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -2077,7 +2095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -2085,7 +2103,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2093,7 +2111,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -2101,7 +2119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -2109,7 +2127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -2117,7 +2135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -2125,7 +2143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2133,7 +2151,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -2141,7 +2159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -2149,7 +2167,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -2157,7 +2175,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -2165,7 +2183,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -2173,7 +2191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -2181,7 +2199,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -2189,7 +2207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -2197,7 +2215,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -2205,7 +2223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -2221,7 +2239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -2229,7 +2247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -2237,7 +2255,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -2245,7 +2263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2253,7 +2271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -2261,7 +2279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -2269,7 +2287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -2277,7 +2295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -2285,7 +2303,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -2293,7 +2311,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -2301,7 +2319,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
@@ -2309,7 +2327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -2317,7 +2335,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>89</v>
       </c>
@@ -2325,7 +2343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
@@ -2333,7 +2351,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -2341,7 +2359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
@@ -2349,7 +2367,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -2357,7 +2375,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>97</v>
       </c>
@@ -2365,7 +2383,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
@@ -2373,7 +2391,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
@@ -2381,7 +2399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
@@ -2389,7 +2407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>102</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -2413,7 +2431,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
@@ -2421,7 +2439,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>102</v>
       </c>
@@ -2429,7 +2447,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -2437,7 +2455,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -2445,7 +2463,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>110</v>
       </c>
@@ -2453,7 +2471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>110</v>
       </c>
@@ -2461,7 +2479,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -2469,7 +2487,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
@@ -2477,7 +2495,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -2485,7 +2503,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -2493,7 +2511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>110</v>
       </c>
@@ -2501,7 +2519,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
@@ -2509,7 +2527,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
@@ -2517,7 +2535,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
@@ -2525,7 +2543,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
@@ -2533,7 +2551,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>119</v>
       </c>
@@ -2541,7 +2559,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>119</v>
       </c>
@@ -2549,7 +2567,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>119</v>
       </c>
@@ -2557,7 +2575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
@@ -2565,7 +2583,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>127</v>
       </c>
@@ -2573,7 +2591,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>127</v>
       </c>
@@ -2581,7 +2599,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>127</v>
       </c>
@@ -2589,7 +2607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>127</v>
       </c>
@@ -2597,7 +2615,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>127</v>
       </c>
@@ -2605,7 +2623,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
@@ -2613,7 +2631,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>127</v>
       </c>
@@ -2621,7 +2639,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>135</v>
       </c>
@@ -2629,7 +2647,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>135</v>
       </c>
@@ -2638,2581 +2656,2702 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C320"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B141" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="s">
+    <row r="145" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
+    <row r="148" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
+    <row r="149" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="s">
+    <row r="152" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
+    <row r="153" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="s">
+    <row r="154" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
+    <row r="155" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
+    <row r="156" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
+    <row r="158" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
+    <row r="161" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
+    <row r="162" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B162" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B164" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B165" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
+    <row r="166" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
+    <row r="167" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
+    <row r="170" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
+    <row r="172" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
+    <row r="173" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
+    <row r="174" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
+    <row r="175" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B175" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
+    <row r="176" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="s">
+    <row r="180" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B181" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
+    <row r="183" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
+    <row r="186" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B186" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="s">
+    <row r="187" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
+    <row r="188" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
+    <row r="189" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B189" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
+    <row r="190" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B190" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="s">
+    <row r="191" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B191" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="s">
+    <row r="192" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B192" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="s">
+    <row r="193" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="s">
+    <row r="194" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="s">
+    <row r="195" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="s">
+    <row r="196" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="s">
+    <row r="197" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="s">
+    <row r="198" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="s">
+    <row r="199" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="s">
+    <row r="200" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="s">
+    <row r="201" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B201" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="s">
+    <row r="202" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="s">
+    <row r="203" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B203" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="s">
+    <row r="204" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="s">
+    <row r="205" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="s">
+    <row r="206" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B206" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="s">
+    <row r="207" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="s">
+    <row r="208" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B208" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="s">
+    <row r="209" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="s">
+    <row r="210" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B210" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="s">
+    <row r="211" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B211" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="s">
+    <row r="212" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="s">
+    <row r="213" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B213" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="s">
+    <row r="214" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B214" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="s">
+    <row r="215" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B215" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="s">
+    <row r="216" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="s">
+    <row r="217" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B217" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="s">
+    <row r="218" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B218" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="s">
+    <row r="219" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B219" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="s">
+    <row r="220" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B220" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="s">
+    <row r="221" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B221" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="s">
+    <row r="222" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B222" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="s">
+    <row r="223" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="s">
+    <row r="224" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="s">
+    <row r="225" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B225" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="s">
+    <row r="226" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B226" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="s">
+    <row r="227" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B227" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="s">
+    <row r="228" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B228" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="s">
+    <row r="229" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B229" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="s">
+    <row r="230" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B230" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="s">
+    <row r="231" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B231" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="s">
+    <row r="232" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B232" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="s">
+    <row r="233" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B233" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="s">
+    <row r="234" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B234" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="s">
+    <row r="235" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B235" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="s">
+    <row r="236" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B236" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="s">
+    <row r="237" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B237" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="s">
+    <row r="238" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B238" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="s">
+    <row r="239" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B239" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="s">
+    <row r="240" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="s">
+    <row r="241" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B241" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="s">
+    <row r="242" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B242" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="s">
+    <row r="243" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B243" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="s">
+    <row r="244" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="s">
+    <row r="245" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B245" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="s">
+    <row r="246" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B246" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="s">
+    <row r="247" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B247" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="s">
+    <row r="248" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B248" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="s">
+    <row r="249" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B249" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="s">
+    <row r="250" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B250" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="s">
+    <row r="251" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B251" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="s">
+    <row r="252" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B252" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="s">
+    <row r="253" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B253" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="s">
+    <row r="254" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B254" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="s">
+    <row r="255" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B255" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="s">
+    <row r="256" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B256" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="s">
+    <row r="257" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="s">
+    <row r="258" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="s">
+    <row r="259" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B259" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="s">
+    <row r="260" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1" t="s">
+    <row r="261" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B261" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C261" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="s">
+    <row r="262" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B262" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="s">
+    <row r="263" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B263" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="s">
+    <row r="264" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B264" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="s">
+    <row r="265" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B265" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="s">
+    <row r="266" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B266" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="s">
+    <row r="267" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B267" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="s">
+    <row r="268" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="s">
+    <row r="269" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B269" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="s">
+    <row r="270" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B270" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="s">
+    <row r="271" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B271" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="s">
+    <row r="272" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B272" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="s">
+    <row r="273" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B273" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="1" t="s">
+    <row r="274" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B274" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="s">
+    <row r="275" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B275" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="s">
+    <row r="276" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B276" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="s">
+    <row r="277" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B277" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="s">
+    <row r="278" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B278" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="1" t="s">
+    <row r="279" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B279" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="s">
+    <row r="280" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B280" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="s">
+    <row r="281" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B281" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="1" t="s">
+    <row r="282" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B282" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="1" t="s">
+    <row r="283" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B283" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="s">
+    <row r="284" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B284" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="s">
+    <row r="285" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B285" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="s">
+    <row r="286" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B286" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="s">
+    <row r="287" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B287" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="C287" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="1" t="s">
+    <row r="288" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B288" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="1" t="s">
+    <row r="289" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B289" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="1" t="s">
+    <row r="290" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B290" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="1" t="s">
+    <row r="291" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B291" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="1" t="s">
+    <row r="292" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B292" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="1" t="s">
+    <row r="293" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B293" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="C293" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="1" t="s">
+    <row r="294" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B294" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="1" t="s">
+    <row r="295" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B295" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="1" t="s">
+    <row r="296" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B296" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="1" t="s">
+    <row r="297" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B297" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="1" t="s">
+    <row r="298" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B298" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="1" t="s">
+    <row r="299" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B299" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="1" t="s">
+    <row r="300" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B300" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="1" t="s">
+    <row r="301" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B301" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="1" t="s">
+    <row r="302" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B302" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="C302" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="1" t="s">
+    <row r="303" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B303" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="1" t="s">
+    <row r="304" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B304" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="C304" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="1" t="s">
+    <row r="305" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B305" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="C305" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="1" t="s">
+    <row r="306" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B306" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="C306" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="1" t="s">
+    <row r="307" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B307" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="C307" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="1" t="s">
+    <row r="308" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B308" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="C308" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="1" t="s">
+    <row r="309" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B309" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="C309" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="1" t="s">
+    <row r="310" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B310" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="1" t="s">
+    <row r="311" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B311" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="C311" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="1" t="s">
+    <row r="312" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B312" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="1" t="s">
+    <row r="313" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B313" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="1" t="s">
+    <row r="314" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B314" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="C314" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="1" t="s">
+    <row r="315" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B315" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="C315" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="1" t="s">
+    <row r="316" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B316" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="C316" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="1" t="s">
+    <row r="317" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B317" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="1" t="s">
+    <row r="318" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B318" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="1" t="s">
+    <row r="319" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B319" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="1" t="s">
+    <row r="320" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B320" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>